--- a/amisbook文档/文档/复制规则说明.xlsx
+++ b/amisbook文档/文档/复制规则说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="货物申报" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="172">
   <si>
     <t>序号</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>随附单证编号</t>
+  </si>
+  <si>
+    <t>不复制录入日期（为复制当前时间）、清单申报日期、核扣标志、清单进出口关卡状态、报关单申报日期</t>
   </si>
   <si>
     <t>预录统一编号</t>
@@ -539,12 +542,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -566,88 +569,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,7 +598,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,7 +659,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,18 +674,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,8 +695,39 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -733,7 +742,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,19 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,19 +862,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,55 +892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -859,61 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,26 +927,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -962,11 +945,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -995,17 +984,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,6 +1007,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1032,10 +1035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,16 +1047,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,119 +1065,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,6 +1193,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1208,7 +1214,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1561,7 +1567,7 @@
   <sheetPr/>
   <dimension ref="A1:F98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C55" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1590,13 +1596,13 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2">
@@ -2333,13 +2339,13 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:5">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" customHeight="1" spans="1:3">
       <c r="A62" s="2">
@@ -2356,10 +2362,10 @@
       <c r="A63" s="2">
         <v>2</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2367,10 +2373,10 @@
       <c r="A64" s="2">
         <v>3</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2378,10 +2384,10 @@
       <c r="A65" s="2">
         <v>4</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2389,10 +2395,10 @@
       <c r="A66" s="2">
         <v>5</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2400,10 +2406,10 @@
       <c r="A67" s="2">
         <v>6</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2411,10 +2417,10 @@
       <c r="A68" s="2">
         <v>7</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D68" s="2" t="s">
@@ -2428,10 +2434,10 @@
       <c r="A69" s="2">
         <v>8</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2439,10 +2445,10 @@
       <c r="A70" s="2">
         <v>9</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -2456,10 +2462,10 @@
       <c r="A71" s="2">
         <v>10</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -2473,10 +2479,10 @@
       <c r="A72" s="2">
         <v>11</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -2490,10 +2496,10 @@
       <c r="A73" s="2">
         <v>12</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -2507,10 +2513,10 @@
       <c r="A74" s="2">
         <v>13</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2518,10 +2524,10 @@
       <c r="A75" s="2">
         <v>14</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2529,10 +2535,10 @@
       <c r="A76" s="2">
         <v>15</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2540,10 +2546,10 @@
       <c r="A77" s="2">
         <v>16</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2551,10 +2557,10 @@
       <c r="A78" s="2">
         <v>17</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>90</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -2568,10 +2574,10 @@
       <c r="A79" s="2">
         <v>18</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2710,26 +2716,26 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:5">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" customHeight="1" spans="1:6">
       <c r="A91" s="2">
         <v>1</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F91"/>
@@ -2738,14 +2744,14 @@
       <c r="A92" s="2">
         <v>2</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F92"/>
@@ -2754,14 +2760,14 @@
       <c r="A93" s="2">
         <v>3</v>
       </c>
-      <c r="B93" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8" t="s">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F93"/>
@@ -2770,14 +2776,14 @@
       <c r="A94" s="2">
         <v>4</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F94"/>
@@ -2786,40 +2792,40 @@
       <c r="A95" s="2">
         <v>5</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F95"/>
     </row>
     <row r="96" customHeight="1" spans="1:6">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" customHeight="1" spans="1:6">
       <c r="A97" s="2">
         <v>1</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8" t="s">
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F97"/>
@@ -2828,14 +2834,14 @@
       <c r="A98" s="2">
         <v>2</v>
       </c>
-      <c r="B98" s="8" t="s">
+      <c r="B98" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8" t="s">
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
         <v>17</v>
       </c>
       <c r="F98"/>
@@ -2855,20 +2861,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D1" sqref="E1 D1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="5" width="31" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="46.787037037037" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1" spans="1:5">
+    <row r="1" ht="60.75" customHeight="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2884,213 +2891,216 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A7" s="6">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="6">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="B8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="7"/>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="6">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="B9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A10" s="6">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A11" s="6">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A12" s="6">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6" t="s">
+      <c r="B12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A13" s="6">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A14" s="6">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A16" s="6">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -3099,170 +3109,170 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="6">
+      <c r="A17" s="7">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A18" s="6">
+      <c r="A18" s="7">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="6">
+      <c r="A19" s="7">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A20" s="6">
+      <c r="A20" s="7">
         <v>18</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A21" s="6">
+      <c r="A21" s="7">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="7" t="s">
+      <c r="B21" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A22" s="6">
+      <c r="A22" s="7">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A23" s="6">
+      <c r="A23" s="7">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D23" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A24" s="6">
+      <c r="A24" s="7">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+        <v>135</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A25" s="6">
+      <c r="A25" s="7">
         <v>23</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+        <v>137</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A27" s="6">
+      <c r="A27" s="7">
         <v>25</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="B27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A28" s="6">
+      <c r="A28" s="7">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3271,166 +3281,166 @@
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A29" s="6">
+      <c r="A29" s="7">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A30" s="6">
+      <c r="A30" s="7">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+        <v>140</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A31" s="6">
+      <c r="A31" s="7">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+        <v>141</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A32" s="6">
+      <c r="A32" s="7">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A33" s="6">
+      <c r="A33" s="7">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A34" s="6">
+      <c r="A34" s="7">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A35" s="6">
+      <c r="A35" s="7">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+        <v>145</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A36" s="6">
+      <c r="A36" s="7">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
     </row>
     <row r="37" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A37" s="6">
+      <c r="A37" s="7">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+        <v>147</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A38" s="6">
+      <c r="A38" s="7">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+        <v>148</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A39" s="6">
+      <c r="A39" s="7">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A40" s="6">
+      <c r="A40" s="7">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3439,41 +3449,41 @@
       <c r="C40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D40" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A41" s="6">
+      <c r="A41" s="7">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A43" s="6">
+      <c r="A43" s="7">
         <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3482,10 +3492,10 @@
       <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="6"/>
+      <c r="D43" s="7"/>
     </row>
     <row r="44" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A44" s="6">
+      <c r="A44" s="7">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3494,82 +3504,82 @@
       <c r="C44" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="6"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A45" s="6">
+      <c r="A45" s="7">
         <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>151</v>
+      </c>
+      <c r="D45" s="7"/>
     </row>
     <row r="46" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A46" s="6">
+      <c r="A46" s="7">
         <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="6"/>
+        <v>152</v>
+      </c>
+      <c r="D46" s="7"/>
     </row>
     <row r="47" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A47" s="6">
+      <c r="A47" s="7">
         <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D47" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A48" s="6">
+      <c r="A48" s="7">
         <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="6"/>
+        <v>154</v>
+      </c>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A49" s="6">
+      <c r="A49" s="7">
         <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D49" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="D49" s="7"/>
     </row>
     <row r="50" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A50" s="6">
+      <c r="A50" s="7">
         <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D50" s="6"/>
+        <v>156</v>
+      </c>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A51" s="6">
+      <c r="A51" s="7">
         <v>9</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3578,187 +3588,187 @@
       <c r="C51" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D51" s="6"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A52" s="6">
+      <c r="A52" s="7">
         <v>10</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" s="6"/>
+      <c r="B52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A53" s="6">
+      <c r="A53" s="7">
         <v>11</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="6"/>
+        <v>158</v>
+      </c>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A54" s="6">
+      <c r="A54" s="7">
         <v>12</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="6"/>
+      <c r="B54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A55" s="6">
+      <c r="A55" s="7">
         <v>13</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E55" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A56" s="6">
+      <c r="A56" s="7">
         <v>14</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E56" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A57" s="6">
+      <c r="A57" s="7">
         <v>15</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A58" s="6">
+      <c r="A58" s="7">
         <v>16</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A59" s="6">
+      <c r="A59" s="7">
         <v>17</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E59" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A60" s="6">
+      <c r="A60" s="7">
         <v>18</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E60" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A61" s="6">
+      <c r="A61" s="7">
         <v>19</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+        <v>166</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A62" s="6">
+      <c r="A62" s="7">
         <v>20</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
     </row>
     <row r="63" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A63" s="6">
+      <c r="A63" s="7">
         <v>21</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
+        <v>168</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
     </row>
     <row r="64" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A64" s="6">
+      <c r="A64" s="7">
         <v>22</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -3767,68 +3777,68 @@
       <c r="C64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E64" s="6" t="s">
+      <c r="D64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A65" s="6">
+      <c r="A65" s="7">
         <v>23</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E65" s="6" t="s">
+      <c r="D65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A66" s="6">
+      <c r="A66" s="7">
         <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A67" s="6">
+      <c r="A67" s="7">
         <v>25</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" s="6"/>
+        <v>170</v>
+      </c>
+      <c r="D67" s="7"/>
     </row>
     <row r="68" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A68" s="6">
+      <c r="A68" s="7">
         <v>26</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="D68" s="7"/>
     </row>
     <row r="69" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A69" s="6">
+      <c r="A69" s="7">
         <v>27</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -3837,8 +3847,8 @@
       <c r="C69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6" t="s">
+      <c r="D69" s="7"/>
+      <c r="E69" s="7" t="s">
         <v>17</v>
       </c>
     </row>
